--- a/students.xlsx
+++ b/students.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joven.garcia\PycharmProjects\ComLabManagementSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1057F766-71DB-46E0-B43D-3D648DE7D077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F10CF80-0B87-47EB-9203-015255FF01DF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Student ID</t>
   </si>
@@ -33,29 +27,41 @@
     <t>Name</t>
   </si>
   <si>
-    <t>K1234567</t>
-  </si>
-  <si>
     <t>John Christoff Regala</t>
   </si>
   <si>
     <t>Section</t>
   </si>
   <si>
-    <t>Grade 7</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>V</t>
+    <t>22-16-036</t>
+  </si>
+  <si>
+    <t>22-16-035</t>
+  </si>
+  <si>
+    <t>rafael garcia</t>
+  </si>
+  <si>
+    <t>4th Year</t>
+  </si>
+  <si>
+    <t>CYB</t>
+  </si>
+  <si>
+    <t>3rd Year</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -207,7 +213,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -401,29 +407,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79BC075-B8D4-4E0E-BF56-D0095D9D46CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,48 +437,59 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="D10" s="1"/>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -19,30 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Student ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>John Christoff Regala</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>22-16-036</t>
-  </si>
-  <si>
-    <t>22-16-035</t>
-  </si>
-  <si>
-    <t>rafael garcia</t>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Users ID</t>
+  </si>
+  <si>
+    <t>22-16-111</t>
+  </si>
+  <si>
+    <t>22-16-112</t>
+  </si>
+  <si>
+    <t>22-16-113</t>
+  </si>
+  <si>
+    <t>22-16-114</t>
+  </si>
+  <si>
+    <t>22-16-115</t>
+  </si>
+  <si>
+    <t>Dollesin, Clade</t>
+  </si>
+  <si>
+    <t>Pestano, Darrhen</t>
+  </si>
+  <si>
+    <t>Manosa, Marie</t>
+  </si>
+  <si>
+    <t>Perez, Lara</t>
+  </si>
+  <si>
+    <t>Garcia, Rafael</t>
   </si>
   <si>
     <t>4th Year</t>
@@ -51,10 +78,16 @@
     <t>CYB</t>
   </si>
   <si>
-    <t>3rd Year</t>
-  </si>
-  <si>
-    <t>IT</t>
+    <t>20-25-001</t>
+  </si>
+  <si>
+    <t>Ms. Professor</t>
+  </si>
+  <si>
+    <t>IT,CYB,ComEng</t>
+  </si>
+  <si>
+    <t>1st-2nd Year</t>
   </si>
 </sst>
 </file>
@@ -415,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,67 +462,132 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:5">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="D10" s="1"/>
     </row>
   </sheetData>
